--- a/申根签证/新旅游行程.xlsx
+++ b/申根签证/新旅游行程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>SUM</t>
   </si>
@@ -179,7 +179,10 @@
     <t>Hotel Klein Matterhorn</t>
   </si>
   <si>
-    <t>Geneva</t>
+    <t>Zermatt</t>
+  </si>
+  <si>
+    <t>Zurich HB</t>
   </si>
   <si>
     <t>Via visp,</t>
@@ -189,19 +192,6 @@
   </si>
   <si>
     <t>CHF.96</t>
-  </si>
-  <si>
-    <t>Zurich HB</t>
-  </si>
-  <si>
-    <t>IC-tilting train 531
-Direction: Zürich HB</t>
-  </si>
-  <si>
-    <t>2H46M</t>
-  </si>
-  <si>
-    <t>CHF.43</t>
   </si>
   <si>
     <t>Germany</t>
@@ -234,17 +224,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="华文楷体"/>
       <charset val="134"/>
     </font>
@@ -271,6 +267,25 @@
     <font>
       <sz val="8"/>
       <color indexed="8"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="华文楷体"/>
       <charset val="134"/>
     </font>
@@ -289,8 +304,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="63"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="华文楷体"/>
       <charset val="134"/>
     </font>
@@ -302,47 +324,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="63"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="63"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="华文楷体"/>
       <charset val="134"/>
     </font>
@@ -356,35 +392,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="63"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="63"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="63"/>
       <name val="华文楷体"/>
       <charset val="134"/>
     </font>
@@ -428,7 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +473,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,25 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -535,19 +544,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -558,8 +554,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="40"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,30 +623,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="40"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -643,254 +648,281 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1284,486 +1316,454 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:N18"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="1"/>
-    <col min="2" max="2" width="11.5666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.425" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.425" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.425" style="1" customWidth="1"/>
-    <col min="11" max="12" width="24.1416666666667" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="2"/>
+    <col min="2" max="2" width="11.5666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.425" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="9" width="7" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.425" style="2" customWidth="1"/>
+    <col min="11" max="12" width="24.1416666666667" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" spans="2:12">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:12">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>42638</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:12">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>42639</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="25" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="21" spans="2:12">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>42640</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="16">
         <v>0.579861111111111</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="2:12">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>42641</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="16">
         <v>0.347222222222222</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <v>0.452777777777778</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" ht="28.5" spans="2:12">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>42641</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="20">
         <v>0.458333333333333</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="20">
         <v>0.549305555555556</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:12">
-      <c r="B8" s="16"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>42642</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <v>0.372916666666667</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="20">
         <v>0.715277777777778</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:12">
-      <c r="B9" s="16"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>42643</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="27" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:12">
-      <c r="B10" s="16"/>
-      <c r="C10" s="20" t="s">
+    <row r="10" s="1" customFormat="1" ht="14.25" spans="2:12">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="25">
         <v>42644</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="19">
+      <c r="G10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="28">
         <v>0.425694444444444</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="28">
         <v>0.583333333333333</v>
       </c>
-      <c r="J10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="27" t="s">
+      <c r="J10" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="K10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="39"/>
     </row>
-    <row r="11" ht="42" spans="2:12">
-      <c r="B11" s="16"/>
-      <c r="C11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="21">
+    <row r="11" s="1" customFormat="1" ht="52.5" spans="2:12">
+      <c r="B11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="25">
         <v>42645</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0.802777777777778</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0.957638888888889</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:12">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="19">
-        <v>0.677083333333333</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0.788888888888889</v>
-      </c>
-      <c r="J11" s="27" t="s">
+      <c r="D12" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" ht="52.5" spans="2:12">
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="21">
-        <v>42645</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0.802777777777778</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0.957638888888889</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:12">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="11">
-        <v>42646</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12">
+        <v>42647</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" ht="14.25" spans="2:12">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="12">
         <v>42647</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="E14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" ht="14.25" spans="2:12">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="11">
-        <v>42647</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="12">
+        <v>42648</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" ht="14.25" spans="2:12">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="11">
-        <v>42648</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
-        <v>15</v>
+    <row r="16" ht="14.25" spans="2:14">
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="2" t="str">
+        <f t="shared" ref="M16" si="0">PROPER(E17)</f>
+        <v/>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" ref="N16" si="1">PROPER(F17)</f>
+        <v/>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:14">
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="1" t="str">
-        <f t="shared" ref="M17" si="0">PROPER(E18)</f>
-        <v/>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" ref="N17" si="1">PROPER(F18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="1" t="s">
-        <v>58</v>
+    <row r="17" spans="5:5">
+      <c r="E17" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" display="www.trenitalia.com"/>
